--- a/Modelos em Python/1_Erros_validação.xlsx
+++ b/Modelos em Python/1_Erros_validação.xlsx
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.516893671583647</v>
+        <v>4.677454828280479</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3198771032330258</v>
+        <v>0.3311414213520718</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1158652820286667</v>
+        <v>0.1176226855901783</v>
       </c>
     </row>
     <row r="8">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.147607423275735</v>
+        <v>5.151674700945377</v>
       </c>
       <c r="C9" t="n">
-        <v>0.357941143101836</v>
+        <v>0.3582152700759543</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1296425188328563</v>
+        <v>0.1297432719599647</v>
       </c>
     </row>
     <row r="10">

--- a/Modelos em Python/1_Erros_validação.xlsx
+++ b/Modelos em Python/1_Erros_validação.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>Decision Tree Regressor</t>
         </is>
       </c>
       <c r="B10" t="n">

--- a/Modelos em Python/1_Erros_validação.xlsx
+++ b/Modelos em Python/1_Erros_validação.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.068830693202703</v>
+        <v>4.079339974627172</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2846891972525283</v>
+        <v>0.2495569075163613</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1023685980744315</v>
+        <v>0.09734732441530788</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.083148300696746</v>
+        <v>4.490556053409997</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3536459581245627</v>
+        <v>0.2768857358440323</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1286558881402818</v>
+        <v>0.1069728614161237</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.97696612352228</v>
+        <v>4.195283867523404</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2782965699066879</v>
+        <v>0.2555481787885786</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1009759713586404</v>
+        <v>0.09809750300251899</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.212972825304513</v>
+        <v>4.092925659006531</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2954519958542526</v>
+        <v>0.2504236108633572</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1040797899203333</v>
+        <v>0.09780818862222279</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.02275597371966</v>
+        <v>4.101961011796047</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2825126290016096</v>
+        <v>0.2509846395574903</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09916822418588372</v>
+        <v>0.09761412118687947</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.677454828280479</v>
+        <v>4.196333845024554</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3311414213520718</v>
+        <v>0.2578182822870504</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1176226855901783</v>
+        <v>0.10000871751198</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.071408704942506</v>
+        <v>4.196768762012876</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3528072597245367</v>
+        <v>0.2575955878709219</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1283708846032647</v>
+        <v>0.1011182862225232</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.151674700945377</v>
+        <v>4.259517681570875</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3582152700759543</v>
+        <v>0.262398110211537</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1297432719599647</v>
+        <v>0.1027486238344242</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.003067501123882</v>
+        <v>8.528674423726464</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3444388775114057</v>
+        <v>0.3108640402648611</v>
       </c>
       <c r="D10" t="n">
-        <v>0.112452724956303</v>
+        <v>0.2003870917425653</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.742312455988146</v>
+        <v>10.59335830016317</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5830045481297386</v>
+        <v>0.732240641318451</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1760103561481834</v>
+        <v>0.2353698213654189</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.784597638609777</v>
+        <v>10.83964382098544</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5865510303470305</v>
+        <v>0.7540491478714318</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1767450723645678</v>
+        <v>0.2403110998178032</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.528616728493468</v>
+        <v>10.43030442791959</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6500265256130546</v>
+        <v>0.7181181458486762</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1918772577960227</v>
+        <v>0.2329317117362308</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/1_Erros_validação.xlsx
+++ b/Modelos em Python/1_Erros_validação.xlsx
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.528674423726464</v>
+        <v>8.539795246791474</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3108640402648611</v>
+        <v>0.3160782062803122</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2003870917425653</v>
+        <v>0.1993216951196106</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.59335830016317</v>
+        <v>10.48949003640018</v>
       </c>
       <c r="C11" t="n">
-        <v>0.732240641318451</v>
+        <v>0.7228978994498351</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2353698213654189</v>
+        <v>0.2339763992159902</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.83964382098544</v>
+        <v>10.66918573880982</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7540491478714318</v>
+        <v>0.7388593502254618</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2403110998178032</v>
+        <v>0.2370966718622717</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.43030442791959</v>
+        <v>10.48878813529452</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7181181458486762</v>
+        <v>0.7232410575208083</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2329317117362308</v>
+        <v>0.2339776943526035</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/1_Erros_validação.xlsx
+++ b/Modelos em Python/1_Erros_validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.46734821287415</v>
+        <v>10.48331227957665</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7222027197036962</v>
+        <v>0.7236198145003843</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2331209333350022</v>
+        <v>0.2334017502213772</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/1_Erros_validação.xlsx
+++ b/Modelos em Python/1_Erros_validação.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Decision Tree Regressor</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,17 +597,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Random Forest Regressor</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.48331227957665</v>
+        <v>10.45946050203369</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7236198145003843</v>
+        <v>0.7215071643132154</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2334017502213772</v>
+        <v>0.2330163139531402</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/1_Erros_validação.xlsx
+++ b/Modelos em Python/1_Erros_validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.45946050203369</v>
+        <v>10.46381541873075</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7215071643132154</v>
+        <v>0.7218974728680462</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2330163139531402</v>
+        <v>0.2330940556928691</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/1_Erros_validação.xlsx
+++ b/Modelos em Python/1_Erros_validação.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DTR</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,23 +597,23 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RFR</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.46381541873075</v>
+        <v>10.47320103496012</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7218974728680462</v>
+        <v>0.7227437146378424</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2330940556928691</v>
+        <v>0.2331739251621395</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XGBRegressor</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -629,7 +629,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LGBMRegressor</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/1_Erros_validação.xlsx
+++ b/Modelos em Python/1_Erros_validação.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.079339974627172</v>
+        <v>4.079494178875347</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2495569075163613</v>
+        <v>0.2496214317518288</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09734732441530788</v>
+        <v>0.0973348738303175</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.279775522986797</v>
+        <v>4.279621374825897</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2634084424222343</v>
+        <v>0.2634292970387259</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1029862599102808</v>
+        <v>0.1029849343000466</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.195283867523404</v>
+        <v>5.458004959469146</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2555481787885786</v>
+        <v>0.3393643767973329</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09809750300251899</v>
+        <v>0.1230746649586479</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.092925659006531</v>
+        <v>4.079252190426849</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2504236108633572</v>
+        <v>0.2496218585136545</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09780818862222279</v>
+        <v>0.09733354478757164</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.101961011796047</v>
+        <v>4.096149601601646</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2509846395574903</v>
+        <v>0.2513256872873441</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09761412118687947</v>
+        <v>0.09741726935962945</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.196333845024554</v>
+        <v>4.080865565576746</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2578182822870504</v>
+        <v>0.2531736177007842</v>
       </c>
       <c r="D7" t="n">
-        <v>0.10000871751198</v>
+        <v>0.09718789063042517</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.2581893498066</v>
+        <v>4.262517524991188</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2619525158800419</v>
+        <v>0.2621434019597353</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1033307565863589</v>
+        <v>0.1031018675758326</v>
       </c>
     </row>
     <row r="9">
@@ -569,19 +569,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.292017930742135</v>
+        <v>4.260183360391943</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2639936190741826</v>
+        <v>0.261828969348465</v>
       </c>
       <c r="D9" t="n">
-        <v>0.103451457786015</v>
+        <v>0.1029268924696694</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,39 +597,39 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.47320103496012</v>
+        <v>10.46491813940378</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7227437146378424</v>
+        <v>0.7220025367615162</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2331739251621395</v>
+        <v>0.233041460211056</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>XGBRegressor</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.65699023330183</v>
+        <v>10.768680589592</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7395737765032663</v>
+        <v>0.7495785881148228</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2360066213486892</v>
+        <v>0.238259881747574</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>LGBMRegressor</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/1_Erros_validação.xlsx
+++ b/Modelos em Python/1_Erros_validação.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.079494178875347</v>
+        <v>8.163131734672405</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2496214317518288</v>
+        <v>0.2494711783415986</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0973348738303175</v>
+        <v>0.09732667473521024</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.279621374825897</v>
+        <v>8.55905533383913</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2634292970387259</v>
+        <v>0.2634249754944759</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1029849343000466</v>
+        <v>0.1029865014551621</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.458004959469146</v>
+        <v>8.526791111573147</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3393643767973329</v>
+        <v>0.2617571186659178</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1230746649586479</v>
+        <v>0.09662861728723897</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.079252190426849</v>
+        <v>8.15891179880715</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2496218585136545</v>
+        <v>0.2496462412009665</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09733354478757164</v>
+        <v>0.09733844270644165</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.096149601601646</v>
+        <v>8.12002156097196</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2513256872873441</v>
+        <v>0.2483061096835355</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09741726935962945</v>
+        <v>0.09683122177362963</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.080865565576746</v>
+        <v>7.994030692520075</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2531736177007842</v>
+        <v>0.2465237079190645</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09718789063042517</v>
+        <v>0.09713532060437724</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.262517524991188</v>
+        <v>8.531305179577371</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2621434019597353</v>
+        <v>0.2623556064978204</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1031018675758326</v>
+        <v>0.1030509988182297</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.260183360391943</v>
+        <v>8.510507385627953</v>
       </c>
       <c r="C9" t="n">
-        <v>0.261828969348465</v>
+        <v>0.2615700215767977</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1029268924696694</v>
+        <v>0.1029374369682398</v>
       </c>
     </row>
     <row r="10">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.539795246791474</v>
+        <v>6.959041351266896</v>
       </c>
       <c r="C10" t="n">
         <v>0.3160782062803122</v>
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.46491813940378</v>
+        <v>20.94788899259006</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7220025367615162</v>
+        <v>0.7228057630205187</v>
       </c>
       <c r="D11" t="n">
-        <v>0.233041460211056</v>
+        <v>0.2332029800691229</v>
       </c>
     </row>
     <row r="12">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.768680589592</v>
+        <v>21.53736117918401</v>
       </c>
       <c r="C12" t="n">
         <v>0.7495785881148228</v>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.45115379248832</v>
+        <v>20.90230758497665</v>
       </c>
       <c r="C13" t="n">
         <v>0.721298801716965</v>

--- a/Modelos em Python/1_Erros_validação.xlsx
+++ b/Modelos em Python/1_Erros_validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.7033738477621</v>
+        <v>20.70356701213879</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7121072243191627</v>
+        <v>0.7121208241911026</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2311671834037106</v>
+        <v>0.231180506135086</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/1_Erros_validação.xlsx
+++ b/Modelos em Python/1_Erros_validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.70356701213879</v>
+        <v>20.70384577313722</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7121208241911026</v>
+        <v>0.7121308206505189</v>
       </c>
       <c r="D11" t="n">
-        <v>0.231180506135086</v>
+        <v>0.231175799918299</v>
       </c>
     </row>
     <row r="12">
